--- a/02_incidenza/Aggregati di incidenza.xlsx
+++ b/02_incidenza/Aggregati di incidenza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Codice-Tesi\02_incidenza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DB0E46-E5FD-4CED-B387-CF711CAF96A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8D608A-EDF7-4005-B870-CA19F2C169FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="9891" xr2:uid="{B5C6ED98-6A1A-488A-8134-FE4164BFC4E8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>ANNO</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>NON_CATALOGATI (N)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -235,6 +241,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>INCIDENZA_TOT_%</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -352,6 +361,75 @@
         <c:axId val="791330927"/>
         <c:axId val="885686991"/>
       </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Media</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$C$42:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.7279150300892593E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7279150300892593E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$42:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA7C-4BC0-9824-79AB5691E3DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1123332608"/>
+        <c:axId val="1123335520"/>
+      </c:scatterChart>
       <c:catAx>
         <c:axId val="791330927"/>
         <c:scaling>
@@ -407,6 +485,7 @@
         <c:axId val="885686991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.14000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -458,6 +537,37 @@
         <c:crossAx val="791330927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1123335520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1123332608"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1123332608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1123335520"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -583,6 +693,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INCIDENZA_TOT_%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -700,6 +821,75 @@
         <c:axId val="878202319"/>
         <c:axId val="885686575"/>
       </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Media</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$F$42:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.9837743344191992E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9837743344191992E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$42:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58A9-4907-8D1E-DB3A89841588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="946094720"/>
+        <c:axId val="946096800"/>
+      </c:scatterChart>
       <c:catAx>
         <c:axId val="878202319"/>
         <c:scaling>
@@ -806,6 +996,36 @@
         <c:crossAx val="878202319"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="946096800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="946094720"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="946094720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="946096800"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -931,6 +1151,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INCIDENZA_TOT_%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1048,6 +1279,75 @@
         <c:axId val="935702703"/>
         <c:axId val="888635055"/>
       </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Media</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$I$42:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.4565176440227536E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4565176440227536E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$H$42:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C7E-43AA-9907-499DDF84FE6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1123789696"/>
+        <c:axId val="1123789280"/>
+      </c:scatterChart>
       <c:catAx>
         <c:axId val="935702703"/>
         <c:scaling>
@@ -1154,6 +1454,36 @@
         <c:crossAx val="935702703"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1123789280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1123789696"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1123789696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1123789280"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3245,7 +3575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31004F2-A007-4280-844D-F23BF4F93EEC}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4815,6 +5145,72 @@
         <v>0.10909585267228662</v>
       </c>
     </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f>AVERAGE(L2:L13)</f>
+        <v>7.7279150300892593E-2</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>AVERAGE(L14:L25)</f>
+        <v>8.9837743344191992E-2</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>AVERAGE(L26:L37)</f>
+        <v>9.4565176440227536E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f>C42</f>
+        <v>7.7279150300892593E-2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f>F42</f>
+        <v>8.9837743344191992E-2</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f>I42</f>
+        <v>9.4565176440227536E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/02_incidenza/Aggregati di incidenza.xlsx
+++ b/02_incidenza/Aggregati di incidenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Codice-Tesi\02_incidenza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8D608A-EDF7-4005-B870-CA19F2C169FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C176D2DF-A409-4AD1-B6A3-1D3CE96528E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="9891" xr2:uid="{B5C6ED98-6A1A-488A-8134-FE4164BFC4E8}"/>
   </bookViews>
@@ -567,6 +567,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1123335520"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1025,6 +1026,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="946096800"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1483,6 +1485,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1123789280"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>

--- a/02_incidenza/Aggregati di incidenza.xlsx
+++ b/02_incidenza/Aggregati di incidenza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Codice-Tesi\02_incidenza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C176D2DF-A409-4AD1-B6A3-1D3CE96528E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23483B0D-6369-45B9-B95F-67C54A13AEAF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="9891" xr2:uid="{B5C6ED98-6A1A-488A-8134-FE4164BFC4E8}"/>
   </bookViews>
@@ -1533,6 +1533,578 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Anno 2015</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>BG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MN</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PV</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SO</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>VA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.5903289254752434E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.920709964689896E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11601836957518274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6967451121373858E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13695771650928285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4883785761577868E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0503656786076572E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0464758002080189E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4108898363295003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8158375279285324E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1509396658721696E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11266700665218357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC24-4769-B9C8-222F1BBB8A3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Anno 2016</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$L$14:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.3234779815536981E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4742288021960205E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12073629126129401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.379787151402159E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13293874206346867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0204696333686404E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3294352920528914E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10814992259644589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7194938818217937E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.691089672693029E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4387602359778112E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11246053769843499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC24-4769-B9C8-222F1BBB8A3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Anno 2017</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$L$26:$L$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.1985723462587378E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1456681751008574E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11879571469034805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1032310483377297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11466875762738844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4998473868264318E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10266337806249345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1096264652207864</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7186204890816988E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11548631249645959</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5587504202560667E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10909585267228662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC24-4769-B9C8-222F1BBB8A3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="339847551"/>
+        <c:axId val="456774463"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="339847551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Province</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456774463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="456774463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.14000000000000001"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Incidenza percentuale</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339847551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1653,6 +2225,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -2664,6 +3273,511 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3273,6 +4387,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>280307</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A041315-707A-4FCE-B31D-022F6C45164D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3580,7 +4730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31004F2-A007-4280-844D-F23BF4F93EEC}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>

--- a/02_incidenza/Aggregati di incidenza.xlsx
+++ b/02_incidenza/Aggregati di incidenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Codice-Tesi\02_incidenza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23483B0D-6369-45B9-B95F-67C54A13AEAF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCCA7F7-8D54-4BD7-AF3E-9AEEFB245D12}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="9891" xr2:uid="{B5C6ED98-6A1A-488A-8134-FE4164BFC4E8}"/>
   </bookViews>
@@ -4400,10 +4400,10 @@
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>280307</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1010292</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>69514</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4731,7 +4731,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/02_incidenza/Aggregati di incidenza.xlsx
+++ b/02_incidenza/Aggregati di incidenza.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Codice-Tesi\02_incidenza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCCA7F7-8D54-4BD7-AF3E-9AEEFB245D12}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D30CA0-77C3-4CB6-B75B-EA6B8FEC6F07}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="9891" xr2:uid="{B5C6ED98-6A1A-488A-8134-FE4164BFC4E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2105,6 +2105,449 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Maschi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$K$41:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$L$41:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.9935871632646168E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2594177519772161E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8509985875587893E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7304-4DC7-90C0-D039C6218CBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Femmine</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$K$41:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$M$41:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.9906268306971284E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3365504277202221E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.939894274960423E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7304-4DC7-90C0-D039C6218CBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="662917423"/>
+        <c:axId val="657969663"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="662917423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Anno</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657969663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="657969663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Incidenza percentuale [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662917423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2262,6 +2705,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -4250,6 +4733,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4423,6 +5409,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563335</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>112221</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>102171</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F91491-87FF-45EA-863D-E56237A4F85A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4728,10 +5750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31004F2-A007-4280-844D-F23BF4F93EEC}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6090,7 +7112,7 @@
         <v>0.10266337806249345</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>2017</v>
       </c>
@@ -6132,7 +7154,7 @@
         <v>0.1096264652207864</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>2017</v>
       </c>
@@ -6174,7 +7196,7 @@
         <v>9.7186204890816988E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>2017</v>
       </c>
@@ -6216,7 +7238,7 @@
         <v>0.11548631249645959</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>2017</v>
       </c>
@@ -6258,7 +7280,7 @@
         <v>6.5587504202560667E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>2017</v>
       </c>
@@ -6300,7 +7322,7 @@
         <v>0.10909585267228662</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>24</v>
       </c>
@@ -6319,8 +7341,19 @@
       <c r="I41" t="s">
         <v>25</v>
       </c>
+      <c r="K41">
+        <v>2015</v>
+      </c>
+      <c r="L41">
+        <f>SUM(C2:C13)/SUM(D2:D13)*100</f>
+        <v>6.9935871632646168E-2</v>
+      </c>
+      <c r="M41">
+        <f>SUM(E2:E13)/SUM(G2:G13)*100</f>
+        <v>7.9906268306971284E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>0</v>
       </c>
@@ -6342,8 +7375,19 @@
         <f>AVERAGE(L26:L37)</f>
         <v>9.4565176440227536E-2</v>
       </c>
+      <c r="K42">
+        <v>2016</v>
+      </c>
+      <c r="L42">
+        <f>SUM(C14:C25)/SUM(D14:D25)*100</f>
+        <v>8.2594177519772161E-2</v>
+      </c>
+      <c r="M42">
+        <f>SUM(E14:E25)/SUM(G14:G25)*100</f>
+        <v>9.3365504277202221E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B43">
         <v>1</v>
       </c>
@@ -6364,6 +7408,17 @@
       <c r="I43">
         <f>I42</f>
         <v>9.4565176440227536E-2</v>
+      </c>
+      <c r="K43">
+        <v>2017</v>
+      </c>
+      <c r="L43">
+        <f>SUM(C26:C37)/SUM(D26:D37)*100</f>
+        <v>8.8509985875587893E-2</v>
+      </c>
+      <c r="M43">
+        <f>SUM(E26:E37)/SUM(G26:G37)*100</f>
+        <v>9.939894274960423E-2</v>
       </c>
     </row>
   </sheetData>
